--- a/selen_projectAOS/Tests_AOS.xlsx
+++ b/selen_projectAOS/Tests_AOS.xlsx
@@ -1056,7 +1056,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>fsnlDOu</t>
+          <t>LxD7WIj</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>gWmOR@gmail.com</t>
+          <t>Gcjhd@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6n~&gt;gF"u</t>
+          <t>j('kfE8+</t>
         </is>
       </c>
     </row>
